--- a/Code/Results/Cases/Case_9_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_4/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.156544663269955</v>
+        <v>1.136804822471191</v>
       </c>
       <c r="C2">
-        <v>0.1994172967636629</v>
+        <v>0.1811140104904467</v>
       </c>
       <c r="D2">
-        <v>0.08685641179344827</v>
+        <v>0.09004849124264069</v>
       </c>
       <c r="E2">
-        <v>0.09558390598585476</v>
+        <v>0.08960711496546736</v>
       </c>
       <c r="F2">
-        <v>0.4570792983322463</v>
+        <v>0.4217631674802291</v>
       </c>
       <c r="G2">
-        <v>0.3610107421665987</v>
+        <v>0.3098442374451551</v>
       </c>
       <c r="H2">
-        <v>0.002538863908435163</v>
+        <v>0.001842780306078984</v>
       </c>
       <c r="I2">
-        <v>0.00503536900711854</v>
+        <v>0.003649214273202084</v>
       </c>
       <c r="J2">
-        <v>0.3282521219765187</v>
+        <v>0.3342051689911898</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1686382928699501</v>
       </c>
       <c r="M2">
-        <v>0.9594181108115549</v>
+        <v>0.1056159658502818</v>
       </c>
       <c r="N2">
-        <v>0.2576608924501755</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.9860464966583322</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2669281394812941</v>
       </c>
       <c r="Q2">
-        <v>1.399724510230612</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.279152248370593</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.007484703516184</v>
+        <v>0.9926526610984752</v>
       </c>
       <c r="C3">
-        <v>0.1954634507379787</v>
+        <v>0.1744033192409518</v>
       </c>
       <c r="D3">
-        <v>0.07807105586850582</v>
+        <v>0.08019727981875491</v>
       </c>
       <c r="E3">
-        <v>0.0881779055452192</v>
+        <v>0.0832291934258329</v>
       </c>
       <c r="F3">
-        <v>0.440729828979606</v>
+        <v>0.4093717389852429</v>
       </c>
       <c r="G3">
-        <v>0.353419213371005</v>
+        <v>0.3068821373732717</v>
       </c>
       <c r="H3">
-        <v>0.003839309476708685</v>
+        <v>0.002883059179807357</v>
       </c>
       <c r="I3">
-        <v>0.006727149350203021</v>
+        <v>0.004887026007170281</v>
       </c>
       <c r="J3">
-        <v>0.3288749283039323</v>
+        <v>0.3340568230531105</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1736043258435807</v>
       </c>
       <c r="M3">
-        <v>0.842763675710728</v>
+        <v>0.1052601968009608</v>
       </c>
       <c r="N3">
-        <v>0.2262504351797219</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8643016274850197</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2345936758091369</v>
       </c>
       <c r="Q3">
-        <v>1.384660285386502</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.274997848591397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9156619936424875</v>
+        <v>0.9037276234263345</v>
       </c>
       <c r="C4">
-        <v>0.1930134779009087</v>
+        <v>0.1703319117537205</v>
       </c>
       <c r="D4">
-        <v>0.0726784672395695</v>
+        <v>0.07416735827280974</v>
       </c>
       <c r="E4">
-        <v>0.08358323664991474</v>
+        <v>0.07925608790924343</v>
       </c>
       <c r="F4">
-        <v>0.4310762815976688</v>
+        <v>0.4020548673904329</v>
       </c>
       <c r="G4">
-        <v>0.3490656395850849</v>
+        <v>0.3053779346547785</v>
       </c>
       <c r="H4">
-        <v>0.004807895760003011</v>
+        <v>0.003667294348152383</v>
       </c>
       <c r="I4">
-        <v>0.007974026096580822</v>
+        <v>0.005821583341744763</v>
       </c>
       <c r="J4">
-        <v>0.3294797674144831</v>
+        <v>0.3340325282219681</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1767417284493504</v>
       </c>
       <c r="M4">
-        <v>0.7711190390214995</v>
+        <v>0.1055636210445012</v>
       </c>
       <c r="N4">
-        <v>0.2069881669741704</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.7895912491323855</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2147770685493242</v>
       </c>
       <c r="Q4">
-        <v>1.376521444451399</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.273286021510714</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8777563823903165</v>
+        <v>0.8669904799617427</v>
       </c>
       <c r="C5">
-        <v>0.1920983103172063</v>
+        <v>0.168816717791259</v>
       </c>
       <c r="D5">
-        <v>0.07055343007908021</v>
+        <v>0.07178699620025952</v>
       </c>
       <c r="E5">
-        <v>0.08161171734516159</v>
+        <v>0.07754116759578267</v>
       </c>
       <c r="F5">
-        <v>0.4267768024132934</v>
+        <v>0.3987164361128634</v>
       </c>
       <c r="G5">
-        <v>0.3469188833761336</v>
+        <v>0.3044364519204166</v>
       </c>
       <c r="H5">
-        <v>0.00524659556107554</v>
+        <v>0.00402447815055218</v>
       </c>
       <c r="I5">
-        <v>0.008614617263314361</v>
+        <v>0.006338422450323122</v>
       </c>
       <c r="J5">
-        <v>0.3295455264109108</v>
+        <v>0.3338138121518952</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1778455906367071</v>
       </c>
       <c r="M5">
-        <v>0.7423162082451</v>
+        <v>0.105721766455666</v>
       </c>
       <c r="N5">
-        <v>0.199229287490212</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7595469040806933</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2067933345591229</v>
       </c>
       <c r="Q5">
-        <v>1.372034393842483</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.271469619945549</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.870957025346172</v>
+        <v>0.8604027517810664</v>
       </c>
       <c r="C6">
-        <v>0.1920578580266117</v>
+        <v>0.1687308725880499</v>
       </c>
       <c r="D6">
-        <v>0.0702896712783172</v>
+        <v>0.07148125441896269</v>
       </c>
       <c r="E6">
-        <v>0.0811771965538064</v>
+        <v>0.0771560748781539</v>
       </c>
       <c r="F6">
-        <v>0.4255080991728803</v>
+        <v>0.3976450601238639</v>
       </c>
       <c r="G6">
-        <v>0.346021151086326</v>
+        <v>0.3037916378251211</v>
       </c>
       <c r="H6">
-        <v>0.005325401810662045</v>
+        <v>0.004088857759945663</v>
       </c>
       <c r="I6">
-        <v>0.008831520862699449</v>
+        <v>0.006550044067959782</v>
       </c>
       <c r="J6">
-        <v>0.3292722688051128</v>
+        <v>0.3335034632695724</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1777909386993031</v>
       </c>
       <c r="M6">
-        <v>0.7380260903398579</v>
+        <v>0.1056379372546399</v>
       </c>
       <c r="N6">
-        <v>0.1980471184026271</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7550419298175939</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2055710710997545</v>
       </c>
       <c r="Q6">
-        <v>1.369546507577411</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.269566823841231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9137796122333839</v>
+        <v>0.9019723610532822</v>
       </c>
       <c r="C7">
-        <v>0.1933095688249509</v>
+        <v>0.1706988389438777</v>
       </c>
       <c r="D7">
-        <v>0.07289419624625992</v>
+        <v>0.07452164707388675</v>
       </c>
       <c r="E7">
-        <v>0.08326589036774479</v>
+        <v>0.07896270763425761</v>
       </c>
       <c r="F7">
-        <v>0.4294887495176098</v>
+        <v>0.3998032395165225</v>
       </c>
       <c r="G7">
-        <v>0.3475475620340092</v>
+        <v>0.306062479149368</v>
       </c>
       <c r="H7">
-        <v>0.004822555891221436</v>
+        <v>0.003682847618823204</v>
       </c>
       <c r="I7">
-        <v>0.00825972269714903</v>
+        <v>0.006151693971000682</v>
       </c>
       <c r="J7">
-        <v>0.3286974736129977</v>
+        <v>0.3299220522641733</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1758854496574713</v>
       </c>
       <c r="M7">
-        <v>0.7720825938466476</v>
+        <v>0.1051013109935308</v>
       </c>
       <c r="N7">
-        <v>0.207173801562277</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.7903985803930311</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.2149281439245527</v>
       </c>
       <c r="Q7">
-        <v>1.371663650301556</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.266462890942108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.103373514168709</v>
+        <v>1.085616308717704</v>
       </c>
       <c r="C8">
-        <v>0.1984859248783941</v>
+        <v>0.1792087606929513</v>
       </c>
       <c r="D8">
-        <v>0.08415436247378949</v>
+        <v>0.08745624781413852</v>
       </c>
       <c r="E8">
-        <v>0.09265489755316025</v>
+        <v>0.08706882408781524</v>
       </c>
       <c r="F8">
-        <v>0.4493429239495015</v>
+        <v>0.4129748692531265</v>
       </c>
       <c r="G8">
-        <v>0.3563669187660139</v>
+        <v>0.3138241195148126</v>
       </c>
       <c r="H8">
-        <v>0.002959579686868996</v>
+        <v>0.002185463956004163</v>
       </c>
       <c r="I8">
-        <v>0.005906934885588022</v>
+        <v>0.004436324413124026</v>
       </c>
       <c r="J8">
-        <v>0.3273941323304328</v>
+        <v>0.3223208931799491</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1688778447324566</v>
       </c>
       <c r="M8">
-        <v>0.9210059396293104</v>
+        <v>0.1044016915959958</v>
       </c>
       <c r="N8">
-        <v>0.2472122414867925</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.9454592950008589</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.256070321017873</v>
       </c>
       <c r="Q8">
-        <v>1.387989667093834</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.263928126466638</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.475454083344829</v>
+        <v>1.444745787053222</v>
       </c>
       <c r="C9">
-        <v>0.2079183644908156</v>
+        <v>0.195712308655196</v>
       </c>
       <c r="D9">
-        <v>0.105833515880505</v>
+        <v>0.1120375474247766</v>
       </c>
       <c r="E9">
-        <v>0.1112226625851207</v>
+        <v>0.1029982848918962</v>
       </c>
       <c r="F9">
-        <v>0.494252073895268</v>
+        <v>0.4466508367315356</v>
       </c>
       <c r="G9">
-        <v>0.3789115464107837</v>
+        <v>0.3265931846113546</v>
       </c>
       <c r="H9">
-        <v>0.0007237374580295608</v>
+        <v>0.0004492236287911844</v>
       </c>
       <c r="I9">
-        <v>0.002611735761603562</v>
+        <v>0.002021432888086316</v>
       </c>
       <c r="J9">
-        <v>0.3280524015427417</v>
+        <v>0.3210747265518989</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1576964918403867</v>
       </c>
       <c r="M9">
-        <v>1.210699158834899</v>
+        <v>0.1083537150480574</v>
       </c>
       <c r="N9">
-        <v>0.3254822398369015</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.248083206049444</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.3366965979260499</v>
       </c>
       <c r="Q9">
-        <v>1.437807501822391</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.282465204957376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.741664967869553</v>
+        <v>1.701983892871965</v>
       </c>
       <c r="C10">
-        <v>0.2164213393722818</v>
+        <v>0.2100669662480499</v>
       </c>
       <c r="D10">
-        <v>0.1232223969936683</v>
+        <v>0.1324572082586144</v>
       </c>
       <c r="E10">
-        <v>0.118855824492254</v>
+        <v>0.1091131142203494</v>
       </c>
       <c r="F10">
-        <v>0.5215195804510344</v>
+        <v>0.462021300944528</v>
       </c>
       <c r="G10">
-        <v>0.3895878849069305</v>
+        <v>0.3437137187043646</v>
       </c>
       <c r="H10">
-        <v>0.0002720741064430321</v>
+        <v>0.0002118505011043936</v>
       </c>
       <c r="I10">
-        <v>0.001533455562750419</v>
+        <v>0.001414883630454611</v>
       </c>
       <c r="J10">
-        <v>0.3257899114182905</v>
+        <v>0.3000851450010416</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1471803368351683</v>
       </c>
       <c r="M10">
-        <v>1.429833280107431</v>
+        <v>0.1106603731054889</v>
       </c>
       <c r="N10">
-        <v>0.3664837235854748</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.475592060659295</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.3789025934625556</v>
       </c>
       <c r="Q10">
-        <v>1.456142414710484</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.26765080484985</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.812835069411477</v>
+        <v>1.777043256581237</v>
       </c>
       <c r="C11">
-        <v>0.2382846571681156</v>
+        <v>0.237999915094008</v>
       </c>
       <c r="D11">
-        <v>0.1432685194303929</v>
+        <v>0.1548907855604256</v>
       </c>
       <c r="E11">
-        <v>0.08013861024108238</v>
+        <v>0.07327527236976294</v>
       </c>
       <c r="F11">
-        <v>0.4707751748006999</v>
+        <v>0.4097955867231136</v>
       </c>
       <c r="G11">
-        <v>0.3346967118306949</v>
+        <v>0.3209534384370656</v>
       </c>
       <c r="H11">
-        <v>0.01886007885947194</v>
+        <v>0.0187966091936218</v>
       </c>
       <c r="I11">
-        <v>0.001861458942814309</v>
+        <v>0.001944029197797903</v>
       </c>
       <c r="J11">
-        <v>0.2940107468684943</v>
+        <v>0.2472745109101098</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1284324446106435</v>
       </c>
       <c r="M11">
-        <v>1.578496940646716</v>
+        <v>0.09422036103118003</v>
       </c>
       <c r="N11">
-        <v>0.2522780977121073</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.620707893304512</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.2615732113352038</v>
       </c>
       <c r="Q11">
-        <v>1.273416654033497</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.08806231393109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.818057686288995</v>
+        <v>1.787307652117363</v>
       </c>
       <c r="C12">
-        <v>0.2603959120292245</v>
+        <v>0.2624031408634977</v>
       </c>
       <c r="D12">
-        <v>0.1570014085210261</v>
+        <v>0.1694043334383792</v>
       </c>
       <c r="E12">
-        <v>0.05610033165027595</v>
+        <v>0.05148016383403586</v>
       </c>
       <c r="F12">
-        <v>0.4260610653730623</v>
+        <v>0.3689861361688216</v>
       </c>
       <c r="G12">
-        <v>0.2913637352217719</v>
+        <v>0.2929711466182923</v>
       </c>
       <c r="H12">
-        <v>0.05758335232626166</v>
+        <v>0.05750446423055422</v>
       </c>
       <c r="I12">
-        <v>0.001832354092287325</v>
+        <v>0.001928818410778632</v>
       </c>
       <c r="J12">
-        <v>0.2701338128875577</v>
+        <v>0.2236375182752397</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1179292101875529</v>
       </c>
       <c r="M12">
-        <v>1.657770043393214</v>
+        <v>0.08228581516255851</v>
       </c>
       <c r="N12">
-        <v>0.165545347784672</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.695194796156898</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1724127447077777</v>
       </c>
       <c r="Q12">
-        <v>1.131622874929633</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.9635730430132838</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.770570211819859</v>
+        <v>1.745944164409764</v>
       </c>
       <c r="C13">
-        <v>0.2840687729104872</v>
+        <v>0.2860881147401102</v>
       </c>
       <c r="D13">
-        <v>0.166909815362061</v>
+        <v>0.1782737401662047</v>
       </c>
       <c r="E13">
-        <v>0.04145176727588318</v>
+        <v>0.03869957242695232</v>
       </c>
       <c r="F13">
-        <v>0.3808907452010288</v>
+        <v>0.333288264520256</v>
       </c>
       <c r="G13">
-        <v>0.2519536158245828</v>
+        <v>0.2536244926682869</v>
       </c>
       <c r="H13">
-        <v>0.1134226229753352</v>
+        <v>0.1133103377481888</v>
       </c>
       <c r="I13">
-        <v>0.001897865026023737</v>
+        <v>0.001942146058906857</v>
       </c>
       <c r="J13">
-        <v>0.2496262978906785</v>
+        <v>0.2161652818222564</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1115095458398958</v>
       </c>
       <c r="M13">
-        <v>1.689574286649872</v>
+        <v>0.0728482942553601</v>
       </c>
       <c r="N13">
-        <v>0.09569369972944486</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.721284424288058</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1005415484202246</v>
       </c>
       <c r="Q13">
-        <v>1.00511310818213</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.8684465308952838</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.713203049285738</v>
+        <v>1.693329053918688</v>
       </c>
       <c r="C14">
-        <v>0.302170378604842</v>
+        <v>0.3030073613243331</v>
       </c>
       <c r="D14">
-        <v>0.1722289722589068</v>
+        <v>0.1819824667862946</v>
       </c>
       <c r="E14">
-        <v>0.03675094418134167</v>
+        <v>0.03505727591315122</v>
       </c>
       <c r="F14">
-        <v>0.3491346189373985</v>
+        <v>0.3101222758408397</v>
       </c>
       <c r="G14">
-        <v>0.2263904653848456</v>
+        <v>0.2227829802803782</v>
       </c>
       <c r="H14">
-        <v>0.162855478178102</v>
+        <v>0.1627086206399753</v>
       </c>
       <c r="I14">
-        <v>0.00208712364228969</v>
+        <v>0.002075770145272493</v>
       </c>
       <c r="J14">
-        <v>0.2368695917666699</v>
+        <v>0.2159228745734723</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1085123915904571</v>
       </c>
       <c r="M14">
-        <v>1.690735246166497</v>
+        <v>0.06750967843453104</v>
       </c>
       <c r="N14">
-        <v>0.05737393222113241</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.717991310646312</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.06103679263251394</v>
       </c>
       <c r="Q14">
-        <v>0.9241533907791251</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.8135387815436559</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.687624889119036</v>
+        <v>1.66913856516922</v>
       </c>
       <c r="C15">
-        <v>0.3065206390594426</v>
+        <v>0.3067924095325765</v>
       </c>
       <c r="D15">
-        <v>0.1726945845619952</v>
+        <v>0.1816935661042152</v>
       </c>
       <c r="E15">
-        <v>0.03632825616605728</v>
+        <v>0.03486879139279497</v>
       </c>
       <c r="F15">
-        <v>0.3406910503193359</v>
+        <v>0.3047062443717223</v>
       </c>
       <c r="G15">
-        <v>0.2202619997493329</v>
+        <v>0.2134141365040421</v>
       </c>
       <c r="H15">
-        <v>0.1754064200817425</v>
+        <v>0.1752422817196617</v>
       </c>
       <c r="I15">
-        <v>0.002286328493320333</v>
+        <v>0.002265595984762392</v>
       </c>
       <c r="J15">
-        <v>0.2341175873937118</v>
+        <v>0.217858483462912</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1081653425209108</v>
       </c>
       <c r="M15">
-        <v>1.68110214192518</v>
+        <v>0.06649112612367247</v>
       </c>
       <c r="N15">
-        <v>0.04932642457473335</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.707108646214152</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.05273557039321375</v>
       </c>
       <c r="Q15">
-        <v>0.9053657414256122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.8032572037373455</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.582812814652101</v>
+        <v>1.566305136617871</v>
       </c>
       <c r="C16">
-        <v>0.297323147305832</v>
+        <v>0.295579745290695</v>
       </c>
       <c r="D16">
-        <v>0.162950385594641</v>
+        <v>0.1690539899614549</v>
       </c>
       <c r="E16">
-        <v>0.03628274637093076</v>
+        <v>0.03489659226626007</v>
       </c>
       <c r="F16">
-        <v>0.3373518170869616</v>
+        <v>0.3094128090157753</v>
       </c>
       <c r="G16">
-        <v>0.2228534108186651</v>
+        <v>0.2000134124320567</v>
       </c>
       <c r="H16">
-        <v>0.1629028384094937</v>
+        <v>0.1626383992348224</v>
       </c>
       <c r="I16">
-        <v>0.002833478957088964</v>
+        <v>0.002655705216857207</v>
       </c>
       <c r="J16">
-        <v>0.2386424176504605</v>
+        <v>0.2390699494087123</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1120027565661408</v>
       </c>
       <c r="M16">
-        <v>1.579384440586949</v>
+        <v>0.06907980074584152</v>
       </c>
       <c r="N16">
-        <v>0.04814369320997969</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.604101858522085</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.05164689105038178</v>
       </c>
       <c r="Q16">
-        <v>0.9201481703377112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.8374154600758743</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.5328720616304</v>
+        <v>1.515468523600646</v>
       </c>
       <c r="C17">
-        <v>0.2803375919136926</v>
+        <v>0.2777045825495605</v>
       </c>
       <c r="D17">
-        <v>0.1526734347898042</v>
+        <v>0.1578226124911737</v>
       </c>
       <c r="E17">
-        <v>0.03779097141613885</v>
+        <v>0.03596604416342775</v>
       </c>
       <c r="F17">
-        <v>0.3514943874949026</v>
+        <v>0.3247280584099386</v>
       </c>
       <c r="G17">
-        <v>0.2381378442198212</v>
+        <v>0.2070040516781688</v>
       </c>
       <c r="H17">
-        <v>0.1252661864656091</v>
+        <v>0.1249399600612122</v>
       </c>
       <c r="I17">
-        <v>0.003195893549959195</v>
+        <v>0.002926209557553072</v>
       </c>
       <c r="J17">
-        <v>0.2488045190203465</v>
+        <v>0.2562600475281371</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1170049043766435</v>
       </c>
       <c r="M17">
-        <v>1.501092700249615</v>
+        <v>0.0735535422382263</v>
       </c>
       <c r="N17">
-        <v>0.06555785294010263</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.527007998769307</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.06971512716476269</v>
       </c>
       <c r="Q17">
-        <v>0.9737164842595973</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.8918727506093802</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.525256472123857</v>
+        <v>1.504266442487676</v>
       </c>
       <c r="C18">
-        <v>0.2566521643602897</v>
+        <v>0.2534312898020659</v>
       </c>
       <c r="D18">
-        <v>0.1408621119520603</v>
+        <v>0.1461128518858459</v>
       </c>
       <c r="E18">
-        <v>0.04569161451240245</v>
+        <v>0.04272304102676205</v>
       </c>
       <c r="F18">
-        <v>0.3842112483644016</v>
+        <v>0.3539844203036893</v>
       </c>
       <c r="G18">
-        <v>0.2685677719165938</v>
+        <v>0.229958786742003</v>
       </c>
       <c r="H18">
-        <v>0.07244622595508332</v>
+        <v>0.07210895918669991</v>
       </c>
       <c r="I18">
-        <v>0.00306566540218256</v>
+        <v>0.002718090664798112</v>
       </c>
       <c r="J18">
-        <v>0.2661525168151329</v>
+        <v>0.2749004186761397</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1247627032136567</v>
       </c>
       <c r="M18">
-        <v>1.433473278075155</v>
+        <v>0.08107757545711003</v>
       </c>
       <c r="N18">
-        <v>0.1102935881747342</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.46297502055242</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1158641667010514</v>
       </c>
       <c r="Q18">
-        <v>1.074492278935608</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.9801630075508285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.549414378290322</v>
+        <v>1.522987833769349</v>
       </c>
       <c r="C19">
-        <v>0.2350927465237973</v>
+        <v>0.2308070279761836</v>
       </c>
       <c r="D19">
-        <v>0.1297239215718662</v>
+        <v>0.1356291606588371</v>
       </c>
       <c r="E19">
-        <v>0.06521515640001851</v>
+        <v>0.06028161021194123</v>
       </c>
       <c r="F19">
-        <v>0.4287962680904869</v>
+        <v>0.3919166024830218</v>
       </c>
       <c r="G19">
-        <v>0.3095234308667969</v>
+        <v>0.2629136460979282</v>
       </c>
       <c r="H19">
-        <v>0.02702164384565009</v>
+        <v>0.02673285426783423</v>
       </c>
       <c r="I19">
-        <v>0.003084327493604988</v>
+        <v>0.002793980112657302</v>
       </c>
       <c r="J19">
-        <v>0.2880891565933155</v>
+        <v>0.2944090657863612</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.13461515866579</v>
       </c>
       <c r="M19">
-        <v>1.383147939444228</v>
+        <v>0.0910387915775388</v>
       </c>
       <c r="N19">
-        <v>0.1885321622260392</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.417710678184221</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1963133982919061</v>
       </c>
       <c r="Q19">
-        <v>1.207237434222819</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.090584599809148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.667192003822805</v>
+        <v>1.629945943778324</v>
       </c>
       <c r="C20">
-        <v>0.2154419875657965</v>
+        <v>0.2084484471451589</v>
       </c>
       <c r="D20">
-        <v>0.1195011819756786</v>
+        <v>0.1273987126878495</v>
       </c>
       <c r="E20">
-        <v>0.1157371078956722</v>
+        <v>0.1064733705370706</v>
       </c>
       <c r="F20">
-        <v>0.5092088201972729</v>
+        <v>0.4561122158958142</v>
       </c>
       <c r="G20">
-        <v>0.3818383590457515</v>
+        <v>0.3272312561348372</v>
       </c>
       <c r="H20">
-        <v>0.000314009398426407</v>
+        <v>0.0002041698526422664</v>
       </c>
       <c r="I20">
-        <v>0.002561437011585177</v>
+        <v>0.00248358922771974</v>
       </c>
       <c r="J20">
-        <v>0.3238013331372258</v>
+        <v>0.3140079409445065</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1490392117828225</v>
       </c>
       <c r="M20">
-        <v>1.376832632175734</v>
+        <v>0.1090438103611788</v>
       </c>
       <c r="N20">
-        <v>0.3559088735399882</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.42070059322603</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.3680550784362708</v>
       </c>
       <c r="Q20">
-        <v>1.435436801859481</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.265843359363302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.880442673115311</v>
+        <v>1.835826383256006</v>
       </c>
       <c r="C21">
-        <v>0.2195450815774933</v>
+        <v>0.2149598544133084</v>
       </c>
       <c r="D21">
-        <v>0.1307571065469944</v>
+        <v>0.1440700972377158</v>
       </c>
       <c r="E21">
-        <v>0.1304645609814798</v>
+        <v>0.1194203909280844</v>
       </c>
       <c r="F21">
-        <v>0.5431558339052458</v>
+        <v>0.4642619576712832</v>
       </c>
       <c r="G21">
-        <v>0.4024621884528869</v>
+        <v>0.3931732523457896</v>
       </c>
       <c r="H21">
-        <v>1.443343782936424E-06</v>
+        <v>1.950267401062966E-05</v>
       </c>
       <c r="I21">
-        <v>0.001924091685251206</v>
+        <v>0.002130465553602079</v>
       </c>
       <c r="J21">
-        <v>0.3285419462911676</v>
+        <v>0.255027229389917</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1414062600313599</v>
       </c>
       <c r="M21">
-        <v>1.536364475567439</v>
+        <v>0.1112403643558615</v>
       </c>
       <c r="N21">
-        <v>0.4135424601441429</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.585635073747227</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.4268427011845262</v>
       </c>
       <c r="Q21">
-        <v>1.489413601699766</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.243751132585956</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.018835305258904</v>
+        <v>1.969715968624257</v>
       </c>
       <c r="C22">
-        <v>0.2224931550001372</v>
+        <v>0.2195053490003716</v>
       </c>
       <c r="D22">
-        <v>0.1384507948686746</v>
+        <v>0.1556107331132068</v>
       </c>
       <c r="E22">
-        <v>0.1375632195564016</v>
+        <v>0.1255649636559752</v>
       </c>
       <c r="F22">
-        <v>0.5641140122786723</v>
+        <v>0.4674252977951667</v>
       </c>
       <c r="G22">
-        <v>0.4146862399294378</v>
+        <v>0.4427894697724213</v>
       </c>
       <c r="H22">
-        <v>0.0001069582275174952</v>
+        <v>0.000159084234196083</v>
       </c>
       <c r="I22">
-        <v>0.001451581373354216</v>
+        <v>0.001712878259029438</v>
       </c>
       <c r="J22">
-        <v>0.33104187827918</v>
+        <v>0.2231514225028626</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1361755753095437</v>
       </c>
       <c r="M22">
-        <v>1.641633431095045</v>
+        <v>0.1123437626903829</v>
       </c>
       <c r="N22">
-        <v>0.4422783131989405</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.693978095259297</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.4560900056833361</v>
       </c>
       <c r="Q22">
-        <v>1.520770523470503</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.223064805310827</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.946664569201289</v>
+        <v>1.8997233408017</v>
       </c>
       <c r="C23">
-        <v>0.2204681252755307</v>
+        <v>0.2165247760803979</v>
       </c>
       <c r="D23">
-        <v>0.1340379675084904</v>
+        <v>0.1487007267478617</v>
       </c>
       <c r="E23">
-        <v>0.1341205041987585</v>
+        <v>0.1225851140987437</v>
       </c>
       <c r="F23">
-        <v>0.5546525096029669</v>
+        <v>0.4692760306872401</v>
       </c>
       <c r="G23">
-        <v>0.4098347313765629</v>
+        <v>0.411219057435332</v>
       </c>
       <c r="H23">
-        <v>3.068504730996402E-05</v>
+        <v>6.976041263007104E-05</v>
       </c>
       <c r="I23">
-        <v>0.001367622451859951</v>
+        <v>0.001542927290167917</v>
       </c>
       <c r="J23">
-        <v>0.3305681460678471</v>
+        <v>0.2446200932563087</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1397376188485495</v>
       </c>
       <c r="M23">
-        <v>1.583765452461279</v>
+        <v>0.1127747919420727</v>
       </c>
       <c r="N23">
-        <v>0.4265769724775765</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.634782883862783</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.4401851153531169</v>
       </c>
       <c r="Q23">
-        <v>1.509383009581853</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.244584153457339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.670535518864568</v>
+        <v>1.632635934830859</v>
       </c>
       <c r="C24">
-        <v>0.2135359181975502</v>
+        <v>0.2056816599431315</v>
       </c>
       <c r="D24">
-        <v>0.1178513096658662</v>
+        <v>0.1257441062395515</v>
       </c>
       <c r="E24">
-        <v>0.1204881545642742</v>
+        <v>0.1108669658316437</v>
       </c>
       <c r="F24">
-        <v>0.5171122150735741</v>
+        <v>0.463052959942587</v>
       </c>
       <c r="G24">
-        <v>0.3896528232491931</v>
+        <v>0.3334932808053281</v>
       </c>
       <c r="H24">
-        <v>0.0001729535805117255</v>
+        <v>7.123923813545652E-05</v>
       </c>
       <c r="I24">
-        <v>0.002040954736090228</v>
+        <v>0.001867814904047194</v>
       </c>
       <c r="J24">
-        <v>0.3279250391090045</v>
+        <v>0.3179846917891993</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1512500864591964</v>
       </c>
       <c r="M24">
-        <v>1.367616214808407</v>
+        <v>0.1112734835399216</v>
       </c>
       <c r="N24">
-        <v>0.3678636608058383</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.411947908863254</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.3803385486720572</v>
       </c>
       <c r="Q24">
-        <v>1.460633432677398</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.287454901256453</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.372463361390999</v>
+        <v>1.345400283149786</v>
       </c>
       <c r="C25">
-        <v>0.2060061304732628</v>
+        <v>0.1922781284367474</v>
       </c>
       <c r="D25">
-        <v>0.1004156793812427</v>
+        <v>0.1056169796511526</v>
       </c>
       <c r="E25">
-        <v>0.105710928378052</v>
+        <v>0.09824721334420872</v>
       </c>
       <c r="F25">
-        <v>0.4789867209965522</v>
+        <v>0.4358571371435005</v>
       </c>
       <c r="G25">
-        <v>0.3698548189354582</v>
+        <v>0.3174932204490659</v>
       </c>
       <c r="H25">
-        <v>0.001171080110791145</v>
+        <v>0.0007818980611908888</v>
       </c>
       <c r="I25">
-        <v>0.003766953895124381</v>
+        <v>0.00304785775492622</v>
       </c>
       <c r="J25">
-        <v>0.3262868106498473</v>
+        <v>0.3246446505385876</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1600300334460805</v>
       </c>
       <c r="M25">
-        <v>1.134785405826563</v>
+        <v>0.106292681804435</v>
       </c>
       <c r="N25">
-        <v>0.3048004825333948</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.168752360791416</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.315389444079301</v>
       </c>
       <c r="Q25">
-        <v>1.414741821348571</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.272374472075782</v>
       </c>
     </row>
   </sheetData>
